--- a/generated_docs/WR_90103927_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_90103927_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I38"/>
+  <dimension ref="A2:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:49 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2961.39</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -679,7 +679,11 @@
           <t>Job #:</t>
         </is>
       </c>
-      <c r="G13" s="6" t="n"/>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>337-1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
@@ -761,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -795,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -806,7 +810,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -816,7 +820,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -829,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -840,7 +844,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -850,7 +854,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -863,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -874,7 +878,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -884,7 +888,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -897,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -908,7 +912,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -918,7 +922,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -927,11 +931,11 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -942,7 +946,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -952,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -961,11 +965,11 @@
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -976,7 +980,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -986,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -995,11 +999,11 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1010,7 +1014,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1020,7 +1024,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1044,7 +1048,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1054,7 +1058,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1078,7 +1082,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1088,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,28 +1105,28 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1131,32 +1135,32 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1180,7 +1184,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1190,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1214,7 +1218,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1224,7 +1228,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,7 +1241,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1248,7 +1252,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1258,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,7 +1275,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1282,7 +1286,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1292,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1301,11 +1305,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1316,7 +1320,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1326,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,7 +1343,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1350,7 +1354,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1360,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1369,11 +1373,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1384,7 +1388,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1394,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,7 +1411,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1418,7 +1422,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1428,7 +1432,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1437,11 +1441,11 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1452,7 +1456,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1462,7 +1466,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,21 +1479,3820 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="15" t="inlineStr">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E39" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H38" s="16" t="n">
-        <v>2961.39</v>
+      <c r="H42" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
+          <t>Saturday (08/16/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D46" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F46" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H46" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E47" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10" t="inlineStr"/>
+      <c r="H47" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C48" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E48" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="13" t="inlineStr"/>
+      <c r="H48" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B49" s="9" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F</t>
+        </is>
+      </c>
+      <c r="C49" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls</t>
+        </is>
+      </c>
+      <c r="E49" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="inlineStr"/>
+      <c r="H49" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B50" s="12" t="inlineStr">
+        <is>
+          <t>CNC-SNB-2</t>
+        </is>
+      </c>
+      <c r="C50" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="12" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+        </is>
+      </c>
+      <c r="E50" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" s="13" t="inlineStr"/>
+      <c r="H50" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C51" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E51" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10" t="inlineStr"/>
+      <c r="H51" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B52" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C52" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D52" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E52" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F52" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" s="13" t="inlineStr"/>
+      <c r="H52" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C53" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E53" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="inlineStr"/>
+      <c r="H53" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B54" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C54" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D54" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E54" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F54" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" s="13" t="inlineStr"/>
+      <c r="H54" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B55" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C55" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D55" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E55" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10" t="inlineStr"/>
+      <c r="H55" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B56" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C56" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E56" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="13" t="inlineStr"/>
+      <c r="H56" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="inlineStr">
+        <is>
+          <t>SWI-15-CO1-100-H</t>
+        </is>
+      </c>
+      <c r="C57" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+        </is>
+      </c>
+      <c r="E57" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10" t="inlineStr"/>
+      <c r="H57" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B58" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C58" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E58" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13" t="inlineStr"/>
+      <c r="H58" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C59" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E59" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10" t="inlineStr"/>
+      <c r="H59" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B60" s="12" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F</t>
+        </is>
+      </c>
+      <c r="C60" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls</t>
+        </is>
+      </c>
+      <c r="E60" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F60" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="13" t="inlineStr"/>
+      <c r="H60" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="inlineStr">
+        <is>
+          <t>CNC-SNB-2</t>
+        </is>
+      </c>
+      <c r="C61" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+        </is>
+      </c>
+      <c r="E61" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="10" t="inlineStr"/>
+      <c r="H61" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B62" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C62" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D62" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E62" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="13" t="inlineStr"/>
+      <c r="H62" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C63" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E63" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="10" t="inlineStr"/>
+      <c r="H63" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B64" s="12" t="inlineStr">
+        <is>
+          <t>DEG-2-SPA</t>
+        </is>
+      </c>
+      <c r="C64" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D64" s="12" t="inlineStr">
+        <is>
+          <t>DEG,#2,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E64" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="13" t="inlineStr"/>
+      <c r="H64" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B65" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-4-C-LC1</t>
+        </is>
+      </c>
+      <c r="C65" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+        </is>
+      </c>
+      <c r="E65" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="10" t="inlineStr"/>
+      <c r="H65" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B66" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C66" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D66" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E66" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F66" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="13" t="inlineStr"/>
+      <c r="H66" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C67" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E67" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" s="10" t="inlineStr"/>
+      <c r="H67" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B68" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C68" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D68" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E68" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G68" s="13" t="inlineStr"/>
+      <c r="H68" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C69" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D69" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E69" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="10" t="inlineStr"/>
+      <c r="H69" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B70" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C70" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D70" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E70" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" s="13" t="inlineStr"/>
+      <c r="H70" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B71" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D71" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E71" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="10" t="inlineStr"/>
+      <c r="H71" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B72" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C72" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D72" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E72" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" s="13" t="inlineStr"/>
+      <c r="H72" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="inlineStr">
+        <is>
+          <t>SWI-15-CO1-100-H</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D73" s="9" t="inlineStr">
+        <is>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+        </is>
+      </c>
+      <c r="E73" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="10" t="inlineStr"/>
+      <c r="H73" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B74" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C74" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D74" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E74" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="13" t="inlineStr"/>
+      <c r="H74" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E75" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="10" t="inlineStr"/>
+      <c r="H75" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="12" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F</t>
+        </is>
+      </c>
+      <c r="C76" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls</t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="13" t="inlineStr"/>
+      <c r="H76" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D77" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E77" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="10" t="inlineStr"/>
+      <c r="H77" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="12" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B78" s="12" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C78" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D78" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E78" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="13" t="inlineStr"/>
+      <c r="H78" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="inlineStr">
+        <is>
+          <t>DEG-2-SPA</t>
+        </is>
+      </c>
+      <c r="C79" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="inlineStr">
+        <is>
+          <t>DEG,#2,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E79" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="10" t="inlineStr"/>
+      <c r="H79" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B80" s="12" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-4-C-LC1</t>
+        </is>
+      </c>
+      <c r="C80" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D80" s="12" t="inlineStr">
+        <is>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+        </is>
+      </c>
+      <c r="E80" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="13" t="inlineStr"/>
+      <c r="H80" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C81" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D81" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E81" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="10" t="inlineStr"/>
+      <c r="H81" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="12" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B82" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C82" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D82" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E82" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G82" s="13" t="inlineStr"/>
+      <c r="H82" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B83" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C83" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D83" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E83" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="10" t="inlineStr"/>
+      <c r="H83" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B84" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C84" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D84" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E84" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F84" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" s="13" t="inlineStr"/>
+      <c r="H84" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B85" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C85" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D85" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E85" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F85" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="10" t="inlineStr"/>
+      <c r="H85" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="12" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B86" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-5</t>
+        </is>
+      </c>
+      <c r="C86" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D86" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E86" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F86" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="13" t="inlineStr"/>
+      <c r="H86" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B87" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C87" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D87" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E87" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F87" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="10" t="inlineStr"/>
+      <c r="H87" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="12" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B88" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C88" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D88" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E88" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F88" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="13" t="inlineStr"/>
+      <c r="H88" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="inlineStr">
+        <is>
+          <t>Point 10</t>
+        </is>
+      </c>
+      <c r="B89" s="9" t="inlineStr">
+        <is>
+          <t>SWI-15-CO1-100-H</t>
+        </is>
+      </c>
+      <c r="C89" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D89" s="9" t="inlineStr">
+        <is>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+        </is>
+      </c>
+      <c r="E89" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F89" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="10" t="inlineStr"/>
+      <c r="H89" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B90" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C90" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D90" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E90" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F90" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="13" t="inlineStr"/>
+      <c r="H90" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B91" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C91" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D91" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E91" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F91" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="10" t="inlineStr"/>
+      <c r="H91" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B92" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C92" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D92" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E92" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F92" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="13" t="inlineStr"/>
+      <c r="H92" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B93" s="9" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C93" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D93" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E93" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F93" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="10" t="inlineStr"/>
+      <c r="H93" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B94" s="12" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X</t>
+        </is>
+      </c>
+      <c r="C94" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D94" s="12" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E94" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="13" t="inlineStr"/>
+      <c r="H94" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B95" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C95" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D95" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E95" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F95" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="10" t="inlineStr"/>
+      <c r="H95" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B96" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C96" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D96" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E96" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F96" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" s="13" t="inlineStr"/>
+      <c r="H96" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B97" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C97" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D97" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E97" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F97" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G97" s="10" t="inlineStr"/>
+      <c r="H97" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B98" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C98" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D98" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E98" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="13" t="inlineStr"/>
+      <c r="H98" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B99" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C99" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D99" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E99" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" s="10" t="inlineStr"/>
+      <c r="H99" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B100" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C100" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D100" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E100" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F100" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" s="13" t="inlineStr"/>
+      <c r="H100" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B101" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C101" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D101" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E101" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="10" t="inlineStr"/>
+      <c r="H101" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B102" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C102" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D102" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E102" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="13" t="inlineStr"/>
+      <c r="H102" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B103" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C103" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D103" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E103" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="10" t="inlineStr"/>
+      <c r="H103" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B104" s="12" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C104" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D104" s="12" t="inlineStr">
+        <is>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+        </is>
+      </c>
+      <c r="E104" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="13" t="inlineStr"/>
+      <c r="H104" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B105" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C105" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D105" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E105" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F105" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="10" t="inlineStr"/>
+      <c r="H105" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B106" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C106" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D106" s="12" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E106" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F106" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" s="13" t="inlineStr"/>
+      <c r="H106" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B107" s="9" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C107" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D107" s="9" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E107" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F107" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" s="10" t="inlineStr"/>
+      <c r="H107" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B108" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C108" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D108" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E108" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F108" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="13" t="inlineStr"/>
+      <c r="H108" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B109" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C109" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D109" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E109" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F109" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" s="10" t="inlineStr"/>
+      <c r="H109" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B110" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C110" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D110" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E110" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F110" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" s="13" t="inlineStr"/>
+      <c r="H110" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B111" s="9" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C111" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D111" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E111" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="10" t="inlineStr"/>
+      <c r="H111" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B112" s="12" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X</t>
+        </is>
+      </c>
+      <c r="C112" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D112" s="12" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E112" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F112" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="13" t="inlineStr"/>
+      <c r="H112" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B113" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C113" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D113" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E113" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="10" t="inlineStr"/>
+      <c r="H113" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B114" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C114" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D114" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E114" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G114" s="13" t="inlineStr"/>
+      <c r="H114" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B115" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C115" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D115" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E115" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="10" t="inlineStr"/>
+      <c r="H115" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B116" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C116" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D116" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E116" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" s="13" t="inlineStr"/>
+      <c r="H116" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B117" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C117" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D117" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E117" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="10" t="inlineStr"/>
+      <c r="H117" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B118" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C118" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D118" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E118" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F118" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" s="13" t="inlineStr"/>
+      <c r="H118" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B119" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C119" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D119" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E119" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F119" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" s="10" t="inlineStr"/>
+      <c r="H119" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B120" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C120" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D120" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E120" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F120" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" s="13" t="inlineStr"/>
+      <c r="H120" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B121" s="9" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C121" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D121" s="9" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E121" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" s="10" t="inlineStr"/>
+      <c r="H121" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B122" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C122" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D122" s="12" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E122" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="13" t="inlineStr"/>
+      <c r="H122" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B123" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C123" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D123" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E123" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" s="10" t="inlineStr"/>
+      <c r="H123" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B124" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C124" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D124" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E124" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" s="13" t="inlineStr"/>
+      <c r="H124" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B125" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C125" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D125" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E125" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="10" t="inlineStr"/>
+      <c r="H125" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B126" s="12" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C126" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D126" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E126" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="13" t="inlineStr"/>
+      <c r="H126" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B127" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X</t>
+        </is>
+      </c>
+      <c r="C127" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D127" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E127" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" s="10" t="inlineStr"/>
+      <c r="H127" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B128" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C128" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D128" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E128" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F128" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" s="13" t="inlineStr"/>
+      <c r="H128" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B129" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C129" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D129" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E129" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G129" s="10" t="inlineStr"/>
+      <c r="H129" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B130" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C130" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D130" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E130" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G130" s="13" t="inlineStr"/>
+      <c r="H130" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B131" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C131" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D131" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E131" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F131" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="10" t="inlineStr"/>
+      <c r="H131" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B132" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C132" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D132" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E132" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" s="13" t="inlineStr"/>
+      <c r="H132" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B133" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C133" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D133" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E133" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" s="10" t="inlineStr"/>
+      <c r="H133" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B134" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C134" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D134" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E134" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="13" t="inlineStr"/>
+      <c r="H134" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B135" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C135" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D135" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E135" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" s="10" t="inlineStr"/>
+      <c r="H135" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B136" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C136" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D136" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E136" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="13" t="inlineStr"/>
+      <c r="H136" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B137" s="9" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C137" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D137" s="9" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E137" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="10" t="inlineStr"/>
+      <c r="H137" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B138" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C138" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D138" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E138" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" s="13" t="inlineStr"/>
+      <c r="H138" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B139" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C139" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D139" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E139" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F139" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" s="10" t="inlineStr"/>
+      <c r="H139" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B140" s="12" t="inlineStr">
+        <is>
+          <t>BKT-ARML-S</t>
+        </is>
+      </c>
+      <c r="C140" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D140" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Crossarm inLin,Steel</t>
+        </is>
+      </c>
+      <c r="E140" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F140" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" s="13" t="inlineStr"/>
+      <c r="H140" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B141" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C141" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D141" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E141" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F141" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" s="10" t="inlineStr"/>
+      <c r="H141" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B142" s="12" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C142" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D142" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E142" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F142" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" s="13" t="inlineStr"/>
+      <c r="H142" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B143" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X</t>
+        </is>
+      </c>
+      <c r="C143" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D143" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E143" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="10" t="inlineStr"/>
+      <c r="H143" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B144" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C144" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D144" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E144" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="13" t="inlineStr"/>
+      <c r="H144" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B145" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C145" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D145" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E145" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F145" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" s="10" t="inlineStr"/>
+      <c r="H145" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B146" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C146" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D146" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E146" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" s="13" t="inlineStr"/>
+      <c r="H146" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B147" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C147" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D147" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E147" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F147" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G147" s="10" t="inlineStr"/>
+      <c r="H147" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B148" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C148" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D148" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E148" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F148" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="13" t="inlineStr"/>
+      <c r="H148" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B149" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C149" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D149" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E149" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="10" t="inlineStr"/>
+      <c r="H149" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B150" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C150" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D150" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E150" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="13" t="inlineStr"/>
+      <c r="H150" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B151" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C151" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D151" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E151" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="10" t="inlineStr"/>
+      <c r="H151" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B152" s="12" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C152" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D152" s="12" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E152" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" s="13" t="inlineStr"/>
+      <c r="H152" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H153" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
@@ -1497,10 +5300,12 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A153:G153"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_90103927_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_90103927_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I153"/>
+  <dimension ref="A2:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:02 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>13687.4</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P75</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="18">
@@ -810,7 +806,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -820,7 +816,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +840,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,7 +850,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +874,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +884,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +908,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +918,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,11 +927,11 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +942,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -965,11 +961,11 @@
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +976,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +986,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,11 +995,11 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1010,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1020,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1044,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1054,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1078,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1105,28 +1101,28 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,32 +1131,32 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1180,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1190,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,7 +1237,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1248,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,7 +1271,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1282,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,11 +1301,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1316,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1339,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1350,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,11 +1369,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1384,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1411,7 +1407,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1418,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1428,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,11 +1437,11 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="37">
@@ -1456,7 +1452,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1462,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1479,202 +1475,202 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B38" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C38" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D38" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E38" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F38" s="10" t="n">
+      <c r="A38" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H38" s="16" t="n">
+        <v>2961.39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>Saturday (08/16/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C42" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D42" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E42" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F42" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G42" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D43" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+        </is>
+      </c>
+      <c r="E43" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10" t="inlineStr"/>
+      <c r="H43" s="11" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B44" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C44" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D44" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E44" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13" t="inlineStr"/>
+      <c r="H44" s="14" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>BKT-PI24-F</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Pin insulator 24in,Fbrgls</t>
+        </is>
+      </c>
+      <c r="E45" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10" t="inlineStr"/>
+      <c r="H45" s="11" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B46" s="12" t="inlineStr">
+        <is>
+          <t>CNC-SNB-2</t>
+        </is>
+      </c>
+      <c r="C46" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D46" s="12" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+        </is>
+      </c>
+      <c r="E46" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G38" s="10" t="inlineStr"/>
-      <c r="H38" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="12" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C39" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D39" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13" t="inlineStr"/>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E40" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="10" t="inlineStr"/>
-      <c r="H40" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="12" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B41" s="12" t="inlineStr">
-        <is>
-          <t>XCO-15-100-7</t>
-        </is>
-      </c>
-      <c r="C41" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D41" s="12" t="inlineStr">
-        <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
-        </is>
-      </c>
-      <c r="E41" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13" t="inlineStr"/>
-      <c r="H41" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H42" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="7" t="inlineStr">
-        <is>
-          <t>Saturday (08/16/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B46" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C46" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D46" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E46" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F46" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G46" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H46" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="G46" s="13" t="inlineStr"/>
+      <c r="H46" s="14" t="n">
+        <v>40.58</v>
       </c>
     </row>
     <row r="47">
@@ -1685,7 +1681,7 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
@@ -1695,7 +1691,7 @@
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1704,11 +1700,11 @@
         </is>
       </c>
       <c r="F47" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>0</v>
+        <v>376.68</v>
       </c>
     </row>
     <row r="48">
@@ -1719,7 +1715,7 @@
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1729,7 +1725,7 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1742,7 +1738,7 @@
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1749,7 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>BKT-PI24-F</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1763,7 +1759,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1772,11 +1768,11 @@
         </is>
       </c>
       <c r="F49" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="50">
@@ -1787,7 +1783,7 @@
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C50" s="12" t="inlineStr">
@@ -1797,7 +1793,7 @@
       </c>
       <c r="D50" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E50" s="12" t="inlineStr">
@@ -1806,11 +1802,11 @@
         </is>
       </c>
       <c r="F50" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="51">
@@ -1821,7 +1817,7 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1831,7 +1827,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1840,11 +1836,11 @@
         </is>
       </c>
       <c r="F51" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="52">
@@ -1855,7 +1851,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SWI-15-CO1-100-H</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1865,7 +1861,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1874,22 +1870,22 @@
         </is>
       </c>
       <c r="F52" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1899,7 +1895,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1912,18 +1908,18 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1933,7 +1929,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1942,22 +1938,22 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>BKT-PI24-F</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
@@ -1967,7 +1963,7 @@
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>BKT,Pin insulator 24in,Fbrgls</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1980,18 +1976,18 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -2001,7 +1997,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -2014,18 +2010,18 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>0</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>SWI-15-CO1-100-H</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
@@ -2035,7 +2031,7 @@
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -2048,7 +2044,7 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="58">
@@ -2059,7 +2055,7 @@
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>DEG-2-SPA</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
@@ -2069,7 +2065,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>DEG,#2,Slack Span Alum</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -2078,11 +2074,11 @@
         </is>
       </c>
       <c r="F58" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="59">
@@ -2093,7 +2089,7 @@
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -2103,7 +2099,7 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2116,7 +2112,7 @@
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="60">
@@ -2127,7 +2123,7 @@
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
@@ -2137,7 +2133,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
@@ -2146,11 +2142,11 @@
         </is>
       </c>
       <c r="F60" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>0</v>
+        <v>376.68</v>
       </c>
     </row>
     <row r="61">
@@ -2161,7 +2157,7 @@
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
@@ -2171,7 +2167,7 @@
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2180,11 +2176,11 @@
         </is>
       </c>
       <c r="F61" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="62">
@@ -2195,7 +2191,7 @@
       </c>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
@@ -2205,7 +2201,7 @@
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E62" s="12" t="inlineStr">
@@ -2214,11 +2210,11 @@
         </is>
       </c>
       <c r="F62" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="63">
@@ -2229,7 +2225,7 @@
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
@@ -2239,7 +2235,7 @@
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2252,7 +2248,7 @@
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="64">
@@ -2263,7 +2259,7 @@
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>DEG-2-SPA</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
@@ -2273,7 +2269,7 @@
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>DEG,#2,Slack Span Alum</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2286,7 +2282,7 @@
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="65">
@@ -2297,7 +2293,7 @@
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-4-C-LC1</t>
+          <t>SWI-15-CO1-100-H</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
@@ -2307,7 +2303,7 @@
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2320,28 +2316,28 @@
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2354,28 +2350,28 @@
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2384,32 +2380,32 @@
         </is>
       </c>
       <c r="F67" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>BKT-PI24-F</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>BKT,Pin insulator 24in,Fbrgls</t>
         </is>
       </c>
       <c r="E68" s="12" t="inlineStr">
@@ -2418,32 +2414,32 @@
         </is>
       </c>
       <c r="F68" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2456,28 +2452,28 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>DEG-2-SPA</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>DEG,#2,Slack Span Alum</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
@@ -2486,32 +2482,32 @@
         </is>
       </c>
       <c r="F70" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2520,32 +2516,32 @@
         </is>
       </c>
       <c r="F71" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>0</v>
+        <v>124.32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E72" s="12" t="inlineStr">
@@ -2554,32 +2550,32 @@
         </is>
       </c>
       <c r="F72" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" s="13" t="inlineStr"/>
       <c r="H72" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>SWI-15-CO1-100-H</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2588,11 +2584,11 @@
         </is>
       </c>
       <c r="F73" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="74">
@@ -2603,7 +2599,7 @@
       </c>
       <c r="B74" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>POL-40-5</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
@@ -2613,7 +2609,7 @@
       </c>
       <c r="D74" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>Pole,40ft,Class 5</t>
         </is>
       </c>
       <c r="E74" s="12" t="inlineStr">
@@ -2626,7 +2622,7 @@
       </c>
       <c r="G74" s="13" t="inlineStr"/>
       <c r="H74" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="75">
@@ -2637,7 +2633,7 @@
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
@@ -2647,7 +2643,7 @@
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E75" s="9" t="inlineStr">
@@ -2660,7 +2656,7 @@
       </c>
       <c r="G75" s="10" t="inlineStr"/>
       <c r="H75" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="76">
@@ -2671,7 +2667,7 @@
       </c>
       <c r="B76" s="12" t="inlineStr">
         <is>
-          <t>BKT-PI24-F</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C76" s="12" t="inlineStr">
@@ -2681,7 +2677,7 @@
       </c>
       <c r="D76" s="12" t="inlineStr">
         <is>
-          <t>BKT,Pin insulator 24in,Fbrgls</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E76" s="12" t="inlineStr">
@@ -2694,7 +2690,7 @@
       </c>
       <c r="G76" s="13" t="inlineStr"/>
       <c r="H76" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="77">
@@ -2705,7 +2701,7 @@
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>SWI-15-CO1-100-H</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
@@ -2715,7 +2711,7 @@
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2728,28 +2724,28 @@
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B78" s="12" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D78" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E78" s="12" t="inlineStr">
@@ -2762,28 +2758,28 @@
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SPA</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Slack Span Alum</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
@@ -2796,28 +2792,28 @@
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-4-C-LC1</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
@@ -2830,28 +2826,28 @@
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D81" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E81" s="9" t="inlineStr">
@@ -2864,28 +2860,28 @@
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B82" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C82" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D82" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E82" s="12" t="inlineStr">
@@ -2894,32 +2890,32 @@
         </is>
       </c>
       <c r="F82" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G82" s="13" t="inlineStr"/>
       <c r="H82" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D83" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E83" s="9" t="inlineStr">
@@ -2928,32 +2924,32 @@
         </is>
       </c>
       <c r="F83" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G83" s="10" t="inlineStr"/>
       <c r="H83" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B84" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C84" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D84" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E84" s="12" t="inlineStr">
@@ -2962,32 +2958,32 @@
         </is>
       </c>
       <c r="F84" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" s="13" t="inlineStr"/>
       <c r="H84" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C85" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D85" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E85" s="9" t="inlineStr">
@@ -2996,32 +2992,32 @@
         </is>
       </c>
       <c r="F85" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="10" t="inlineStr"/>
       <c r="H85" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B86" s="12" t="inlineStr">
         <is>
-          <t>POL-40-5</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C86" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 5</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E86" s="12" t="inlineStr">
@@ -3034,13 +3030,13 @@
       </c>
       <c r="G86" s="13" t="inlineStr"/>
       <c r="H86" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B87" s="9" t="inlineStr">
@@ -3050,7 +3046,7 @@
       </c>
       <c r="C87" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D87" s="9" t="inlineStr">
@@ -3068,13 +3064,13 @@
       </c>
       <c r="G87" s="10" t="inlineStr"/>
       <c r="H87" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B88" s="12" t="inlineStr">
@@ -3084,7 +3080,7 @@
       </c>
       <c r="C88" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D88" s="12" t="inlineStr">
@@ -3102,28 +3098,28 @@
       </c>
       <c r="G88" s="13" t="inlineStr"/>
       <c r="H88" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>SWI-15-CO1-100-H</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E89" s="9" t="inlineStr">
@@ -3136,7 +3132,7 @@
       </c>
       <c r="G89" s="10" t="inlineStr"/>
       <c r="H89" s="11" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="90">
@@ -3147,7 +3143,7 @@
       </c>
       <c r="B90" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C90" s="12" t="inlineStr">
@@ -3157,7 +3153,7 @@
       </c>
       <c r="D90" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E90" s="12" t="inlineStr">
@@ -3170,7 +3166,7 @@
       </c>
       <c r="G90" s="13" t="inlineStr"/>
       <c r="H90" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="91">
@@ -3181,7 +3177,7 @@
       </c>
       <c r="B91" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C91" s="9" t="inlineStr">
@@ -3191,7 +3187,7 @@
       </c>
       <c r="D91" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E91" s="9" t="inlineStr">
@@ -3204,28 +3200,28 @@
       </c>
       <c r="G91" s="10" t="inlineStr"/>
       <c r="H91" s="11" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B92" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C92" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D92" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E92" s="12" t="inlineStr">
@@ -3238,28 +3234,28 @@
       </c>
       <c r="G92" s="13" t="inlineStr"/>
       <c r="H92" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B93" s="9" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C93" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D93" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E93" s="9" t="inlineStr">
@@ -3272,28 +3268,28 @@
       </c>
       <c r="G93" s="10" t="inlineStr"/>
       <c r="H93" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B94" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C94" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D94" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E94" s="12" t="inlineStr">
@@ -3306,28 +3302,28 @@
       </c>
       <c r="G94" s="13" t="inlineStr"/>
       <c r="H94" s="14" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B95" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C95" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D95" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E95" s="9" t="inlineStr">
@@ -3340,28 +3336,28 @@
       </c>
       <c r="G95" s="10" t="inlineStr"/>
       <c r="H95" s="11" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B96" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C96" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D96" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E96" s="12" t="inlineStr">
@@ -3370,32 +3366,32 @@
         </is>
       </c>
       <c r="F96" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" s="13" t="inlineStr"/>
       <c r="H96" s="14" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B97" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C97" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D97" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E97" s="9" t="inlineStr">
@@ -3404,32 +3400,32 @@
         </is>
       </c>
       <c r="F97" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G97" s="10" t="inlineStr"/>
       <c r="H97" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B98" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C98" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D98" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E98" s="12" t="inlineStr">
@@ -3438,32 +3434,32 @@
         </is>
       </c>
       <c r="F98" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="13" t="inlineStr"/>
       <c r="H98" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B99" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C99" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D99" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E99" s="9" t="inlineStr">
@@ -3472,32 +3468,32 @@
         </is>
       </c>
       <c r="F99" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99" s="10" t="inlineStr"/>
       <c r="H99" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B100" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C100" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D100" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E100" s="12" t="inlineStr">
@@ -3510,28 +3506,28 @@
       </c>
       <c r="G100" s="13" t="inlineStr"/>
       <c r="H100" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B101" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C101" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D101" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E101" s="9" t="inlineStr">
@@ -3544,28 +3540,28 @@
       </c>
       <c r="G101" s="10" t="inlineStr"/>
       <c r="H101" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B102" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C102" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D102" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E102" s="12" t="inlineStr">
@@ -3578,28 +3574,28 @@
       </c>
       <c r="G102" s="13" t="inlineStr"/>
       <c r="H102" s="14" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B103" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C103" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D103" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E103" s="9" t="inlineStr">
@@ -3612,28 +3608,28 @@
       </c>
       <c r="G103" s="10" t="inlineStr"/>
       <c r="H103" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B104" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C104" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D104" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E104" s="12" t="inlineStr">
@@ -3646,18 +3642,18 @@
       </c>
       <c r="G104" s="13" t="inlineStr"/>
       <c r="H104" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B105" s="9" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C105" s="9" t="inlineStr">
@@ -3667,7 +3663,7 @@
       </c>
       <c r="D105" s="9" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E105" s="9" t="inlineStr">
@@ -3680,18 +3676,18 @@
       </c>
       <c r="G105" s="10" t="inlineStr"/>
       <c r="H105" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B106" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C106" s="12" t="inlineStr">
@@ -3701,7 +3697,7 @@
       </c>
       <c r="D106" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E106" s="12" t="inlineStr">
@@ -3714,18 +3710,18 @@
       </c>
       <c r="G106" s="13" t="inlineStr"/>
       <c r="H106" s="14" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B107" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C107" s="9" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="D107" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E107" s="9" t="inlineStr">
@@ -3748,28 +3744,28 @@
       </c>
       <c r="G107" s="10" t="inlineStr"/>
       <c r="H107" s="11" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B108" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E108" s="12" t="inlineStr">
@@ -3782,28 +3778,28 @@
       </c>
       <c r="G108" s="13" t="inlineStr"/>
       <c r="H108" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B109" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C109" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D109" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E109" s="9" t="inlineStr">
@@ -3812,32 +3808,32 @@
         </is>
       </c>
       <c r="F109" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G109" s="10" t="inlineStr"/>
       <c r="H109" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B110" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C110" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D110" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E110" s="12" t="inlineStr">
@@ -3850,28 +3846,28 @@
       </c>
       <c r="G110" s="13" t="inlineStr"/>
       <c r="H110" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B111" s="9" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C111" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D111" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E111" s="9" t="inlineStr">
@@ -3880,32 +3876,32 @@
         </is>
       </c>
       <c r="F111" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" s="10" t="inlineStr"/>
       <c r="H111" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B112" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C112" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D112" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E112" s="12" t="inlineStr">
@@ -3918,28 +3914,28 @@
       </c>
       <c r="G112" s="13" t="inlineStr"/>
       <c r="H112" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B113" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C113" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D113" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E113" s="9" t="inlineStr">
@@ -3952,28 +3948,28 @@
       </c>
       <c r="G113" s="10" t="inlineStr"/>
       <c r="H113" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B114" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C114" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D114" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E114" s="12" t="inlineStr">
@@ -3982,32 +3978,32 @@
         </is>
       </c>
       <c r="F114" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114" s="13" t="inlineStr"/>
       <c r="H114" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B115" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C115" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D115" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E115" s="9" t="inlineStr">
@@ -4020,18 +4016,18 @@
       </c>
       <c r="G115" s="10" t="inlineStr"/>
       <c r="H115" s="11" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B116" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C116" s="12" t="inlineStr">
@@ -4041,7 +4037,7 @@
       </c>
       <c r="D116" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E116" s="12" t="inlineStr">
@@ -4050,22 +4046,22 @@
         </is>
       </c>
       <c r="F116" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" s="13" t="inlineStr"/>
       <c r="H116" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B117" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C117" s="9" t="inlineStr">
@@ -4075,7 +4071,7 @@
       </c>
       <c r="D117" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E117" s="9" t="inlineStr">
@@ -4088,18 +4084,18 @@
       </c>
       <c r="G117" s="10" t="inlineStr"/>
       <c r="H117" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B118" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>BKT-ARML-S</t>
         </is>
       </c>
       <c r="C118" s="12" t="inlineStr">
@@ -4109,7 +4105,7 @@
       </c>
       <c r="D118" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>BKT,Crossarm inLin,Steel</t>
         </is>
       </c>
       <c r="E118" s="12" t="inlineStr">
@@ -4122,18 +4118,18 @@
       </c>
       <c r="G118" s="13" t="inlineStr"/>
       <c r="H118" s="14" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B119" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C119" s="9" t="inlineStr">
@@ -4143,7 +4139,7 @@
       </c>
       <c r="D119" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E119" s="9" t="inlineStr">
@@ -4156,18 +4152,18 @@
       </c>
       <c r="G119" s="10" t="inlineStr"/>
       <c r="H119" s="11" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B120" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C120" s="12" t="inlineStr">
@@ -4177,7 +4173,7 @@
       </c>
       <c r="D120" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E120" s="12" t="inlineStr">
@@ -4190,18 +4186,18 @@
       </c>
       <c r="G120" s="13" t="inlineStr"/>
       <c r="H120" s="14" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B121" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C121" s="9" t="inlineStr">
@@ -4211,7 +4207,7 @@
       </c>
       <c r="D121" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E121" s="9" t="inlineStr">
@@ -4220,22 +4216,22 @@
         </is>
       </c>
       <c r="F121" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G121" s="10" t="inlineStr"/>
       <c r="H121" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B122" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C122" s="12" t="inlineStr">
@@ -4245,7 +4241,7 @@
       </c>
       <c r="D122" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E122" s="12" t="inlineStr">
@@ -4258,28 +4254,28 @@
       </c>
       <c r="G122" s="13" t="inlineStr"/>
       <c r="H122" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B123" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C123" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D123" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E123" s="9" t="inlineStr">
@@ -4288,32 +4284,32 @@
         </is>
       </c>
       <c r="F123" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" s="10" t="inlineStr"/>
       <c r="H123" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B124" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C124" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D124" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E124" s="12" t="inlineStr">
@@ -4326,28 +4322,28 @@
       </c>
       <c r="G124" s="13" t="inlineStr"/>
       <c r="H124" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B125" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C125" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D125" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E125" s="9" t="inlineStr">
@@ -4360,28 +4356,28 @@
       </c>
       <c r="G125" s="10" t="inlineStr"/>
       <c r="H125" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B126" s="12" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C126" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D126" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E126" s="12" t="inlineStr">
@@ -4394,28 +4390,28 @@
       </c>
       <c r="G126" s="13" t="inlineStr"/>
       <c r="H126" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B127" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C127" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D127" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E127" s="9" t="inlineStr">
@@ -4428,871 +4424,22 @@
       </c>
       <c r="G127" s="10" t="inlineStr"/>
       <c r="H127" s="11" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B128" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C128" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D128" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E128" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F128" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" s="13" t="inlineStr"/>
-      <c r="H128" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B129" s="9" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C129" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D129" s="9" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E129" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F129" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G129" s="10" t="inlineStr"/>
-      <c r="H129" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B130" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C130" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D130" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E130" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F130" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G130" s="13" t="inlineStr"/>
-      <c r="H130" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B131" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C131" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D131" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E131" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F131" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" s="10" t="inlineStr"/>
-      <c r="H131" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B132" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C132" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D132" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E132" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F132" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G132" s="13" t="inlineStr"/>
-      <c r="H132" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B133" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE</t>
-        </is>
-      </c>
-      <c r="C133" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D133" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend</t>
-        </is>
-      </c>
-      <c r="E133" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F133" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" s="10" t="inlineStr"/>
-      <c r="H133" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B134" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C134" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D134" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E134" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F134" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G134" s="13" t="inlineStr"/>
-      <c r="H134" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B135" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C135" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D135" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E135" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F135" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" s="10" t="inlineStr"/>
-      <c r="H135" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B136" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C136" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D136" s="12" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E136" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F136" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" s="13" t="inlineStr"/>
-      <c r="H136" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B137" s="9" t="inlineStr">
-        <is>
-          <t>XCO-15-100-7</t>
-        </is>
-      </c>
-      <c r="C137" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D137" s="9" t="inlineStr">
-        <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
-        </is>
-      </c>
-      <c r="E137" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F137" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" s="10" t="inlineStr"/>
-      <c r="H137" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="12" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B138" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL</t>
-        </is>
-      </c>
-      <c r="C138" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D138" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
-        </is>
-      </c>
-      <c r="E138" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F138" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" s="13" t="inlineStr"/>
-      <c r="H138" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="9" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B139" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F</t>
-        </is>
-      </c>
-      <c r="C139" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D139" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
-        </is>
-      </c>
-      <c r="E139" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F139" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" s="10" t="inlineStr"/>
-      <c r="H139" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="12" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B140" s="12" t="inlineStr">
-        <is>
-          <t>BKT-ARML-S</t>
-        </is>
-      </c>
-      <c r="C140" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D140" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Crossarm inLin,Steel</t>
-        </is>
-      </c>
-      <c r="E140" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F140" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G140" s="13" t="inlineStr"/>
-      <c r="H140" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="9" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B141" s="9" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C141" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D141" s="9" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E141" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F141" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" s="10" t="inlineStr"/>
-      <c r="H141" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="12" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B142" s="12" t="inlineStr">
-        <is>
-          <t>CND-S620A</t>
-        </is>
-      </c>
-      <c r="C142" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D142" s="12" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
-        </is>
-      </c>
-      <c r="E142" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F142" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" s="13" t="inlineStr"/>
-      <c r="H142" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="9" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B143" s="9" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X</t>
-        </is>
-      </c>
-      <c r="C143" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D143" s="9" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
-        </is>
-      </c>
-      <c r="E143" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F143" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G143" s="10" t="inlineStr"/>
-      <c r="H143" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="12" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B144" s="12" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C144" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D144" s="12" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E144" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F144" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" s="13" t="inlineStr"/>
-      <c r="H144" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="9" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B145" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C145" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D145" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E145" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F145" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G145" s="10" t="inlineStr"/>
-      <c r="H145" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="12" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B146" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C146" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D146" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E146" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F146" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" s="13" t="inlineStr"/>
-      <c r="H146" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="9" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B147" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C147" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D147" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E147" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F147" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G147" s="10" t="inlineStr"/>
-      <c r="H147" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="12" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B148" s="12" t="inlineStr">
-        <is>
-          <t>PLD-EYE</t>
-        </is>
-      </c>
-      <c r="C148" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D148" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend</t>
-        </is>
-      </c>
-      <c r="E148" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F148" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G148" s="13" t="inlineStr"/>
-      <c r="H148" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="9" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B149" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C149" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D149" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E149" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F149" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G149" s="10" t="inlineStr"/>
-      <c r="H149" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="12" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B150" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C150" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D150" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E150" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" s="13" t="inlineStr"/>
-      <c r="H150" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="9" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B151" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C151" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D151" s="9" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E151" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" s="10" t="inlineStr"/>
-      <c r="H151" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="12" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B152" s="12" t="inlineStr">
-        <is>
-          <t>XCO-15-100-7</t>
-        </is>
-      </c>
-      <c r="C152" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D152" s="12" t="inlineStr">
-        <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
-        </is>
-      </c>
-      <c r="E152" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F152" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" s="13" t="inlineStr"/>
-      <c r="H152" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="15" t="inlineStr">
+      <c r="A128" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H153" s="16" t="n">
-        <v>0</v>
+      <c r="H128" s="16" t="n">
+        <v>10726.01</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A128:G128"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
@@ -5300,12 +4447,11 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="A38:G38"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A41:H41"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A45:H45"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A42:G42"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
